--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgg-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgg-Tlr4.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.94532566666667</v>
+        <v>2.680851666666667</v>
       </c>
       <c r="N2">
-        <v>77.835977</v>
+        <v>8.042555</v>
       </c>
       <c r="O2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="P2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="Q2">
-        <v>47.88336119034911</v>
+        <v>4.947642218947778</v>
       </c>
       <c r="R2">
-        <v>430.950250713142</v>
+        <v>44.52877997053</v>
       </c>
       <c r="S2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="T2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.51427066666666</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N3">
         <v>55.542812</v>
       </c>
       <c r="O3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="P3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="Q3">
-        <v>34.16898754317244</v>
+        <v>34.16898754317245</v>
       </c>
       <c r="R3">
         <v>307.520887888552</v>
       </c>
       <c r="S3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="T3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.571174000000001</v>
+        <v>3.745104</v>
       </c>
       <c r="N4">
-        <v>10.713522</v>
+        <v>11.235312</v>
       </c>
       <c r="O4">
-        <v>0.07435179521827506</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="P4">
-        <v>0.07435179521827505</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="Q4">
-        <v>6.590775414134668</v>
+        <v>6.911771693728</v>
       </c>
       <c r="R4">
-        <v>59.31697872721201</v>
+        <v>62.205945243552</v>
       </c>
       <c r="S4">
-        <v>0.07435179521827506</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="T4">
-        <v>0.07435179521827505</v>
+        <v>0.1501631921838079</v>
       </c>
     </row>
   </sheetData>
